--- a/DS/02_Excel/Jan13.xlsx
+++ b/DS/02_Excel/Jan13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\21Club_Sept_CW1\DS\02_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E8CF91-B638-459A-B62C-D5D0903777DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E17EC17-4735-403F-8E00-D698C744F70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="324" windowWidth="22140" windowHeight="12036" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="103">
   <si>
     <t>Sr No</t>
   </si>
@@ -334,6 +334,18 @@
   </si>
   <si>
     <t>Final Test6</t>
+  </si>
+  <si>
+    <t>Principal's Note</t>
+  </si>
+  <si>
+    <t>Class Teacher's Remarks</t>
+  </si>
+  <si>
+    <t>Star batch</t>
+  </si>
+  <si>
+    <t>Most students are sincere</t>
   </si>
 </sst>
 </file>
@@ -341,7 +353,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -382,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2066,7 +2078,7 @@
         <v>74</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:O2" si="0">C2+$H$2</f>
+        <f t="shared" ref="J2:N2" si="0">C2+$H$2</f>
         <v>78</v>
       </c>
       <c r="K2">
@@ -2405,13 +2417,13 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
@@ -2484,6 +2496,10 @@
       <c r="I2" t="s">
         <v>2</v>
       </c>
+      <c r="J2">
+        <f>IF(F2&gt;=70, D2+$E$2, D2)</f>
+        <v>54</v>
+      </c>
       <c r="K2">
         <f>SUM(G2:G15)</f>
         <v>9</v>
@@ -2503,6 +2519,10 @@
       <c r="I3" t="s">
         <v>17</v>
       </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J15" si="1">IF(F3&gt;=70, D3+$E$2, D3)</f>
+        <v>0</v>
+      </c>
       <c r="K3" t="s">
         <v>82</v>
       </c>
@@ -2521,11 +2541,18 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
       <c r="F4">
         <v>77</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>64</v>
       </c>
       <c r="K4">
         <f>COUNT(B2:B15)</f>
@@ -2546,6 +2573,9 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
       <c r="F5">
         <v>98</v>
       </c>
@@ -2554,6 +2584,10 @@
       </c>
       <c r="I5" t="s">
         <v>2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
         <v>83</v>
@@ -2585,6 +2619,10 @@
       <c r="I6" t="s">
         <v>17</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
       <c r="K6">
         <f>COUNT(C2:C15)</f>
         <v>12</v>
@@ -2601,6 +2639,9 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
+      <c r="E7" t="s">
+        <v>100</v>
+      </c>
       <c r="F7">
         <v>92</v>
       </c>
@@ -2612,6 +2653,10 @@
       </c>
       <c r="I7" t="s">
         <v>17</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="K7" t="s">
         <v>84</v>
@@ -2631,6 +2676,9 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
       <c r="F8">
         <v>50</v>
       </c>
@@ -2639,6 +2687,10 @@
       </c>
       <c r="I8" t="s">
         <v>17</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>41</v>
       </c>
       <c r="K8">
         <f>COUNTA(H2:H15)</f>
@@ -2665,6 +2717,10 @@
       <c r="I9" t="s">
         <v>2</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
       <c r="K9" t="s">
         <v>85</v>
       </c>
@@ -2692,6 +2748,10 @@
       <c r="I10" t="s">
         <v>2</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
       <c r="K10">
         <f>COUNTIF(F2:F15, "&gt;=70")</f>
         <v>6</v>
@@ -2717,6 +2777,10 @@
       <c r="I11" t="s">
         <v>17</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
       <c r="K11" t="s">
         <v>86</v>
       </c>
@@ -2744,6 +2808,10 @@
       <c r="I12" t="s">
         <v>17</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="K12">
         <f>COUNTIF(F2:F15, 50)</f>
         <v>3</v>
@@ -2772,6 +2840,10 @@
       <c r="I13" t="s">
         <v>17</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
       <c r="K13" t="s">
         <v>87</v>
       </c>
@@ -2799,6 +2871,10 @@
       <c r="I14" t="s">
         <v>2</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
       <c r="K14">
         <f>COUNTIF(I2:I15, "P")</f>
         <v>8</v>
@@ -2829,6 +2905,10 @@
       </c>
       <c r="I15" t="s">
         <v>2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
